--- a/Docs/medidas.xlsx
+++ b/Docs/medidas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B137212-5A76-4A07-8918-ECB41AF9452A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6AAEE1-EB6B-4C6B-A6BB-9653DFFEC2A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{9CF8207D-8C29-49C0-98EE-BE4BFA3AF944}"/>
+    <workbookView xWindow="3435" yWindow="3150" windowWidth="21600" windowHeight="11205" xr2:uid="{9CF8207D-8C29-49C0-98EE-BE4BFA3AF944}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Panturrilhas</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Peso</t>
+  </si>
+  <si>
+    <t>29 e 30</t>
+  </si>
+  <si>
+    <t>36,5 e 37,6</t>
   </si>
 </sst>
 </file>
@@ -419,94 +425,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C55966-601D-4368-9F4B-511A90B0FD43}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>44158</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>67.599999999999994</v>
       </c>
+      <c r="C10" s="2">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Docs/medidas.xlsx
+++ b/Docs/medidas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6AAEE1-EB6B-4C6B-A6BB-9653DFFEC2A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6362A2B2-50F1-4540-9E5C-83AB2D2CAA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3150" windowWidth="21600" windowHeight="11205" xr2:uid="{9CF8207D-8C29-49C0-98EE-BE4BFA3AF944}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CF8207D-8C29-49C0-98EE-BE4BFA3AF944}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Panturrilhas</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>36,5 e 37,6</t>
+  </si>
+  <si>
+    <t>37 e 38</t>
+  </si>
+  <si>
+    <t>55 e 55,5</t>
+  </si>
+  <si>
+    <t>28,5 e 29,5</t>
+  </si>
+  <si>
+    <t>36 e 37</t>
   </si>
 </sst>
 </file>
@@ -105,11 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,27 +440,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C55966-601D-4368-9F4B-511A90B0FD43}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>44158</v>
       </c>
       <c r="C1" s="1">
         <v>44324</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,8 +474,11 @@
       <c r="C2" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -466,8 +488,11 @@
       <c r="C3" s="2">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -477,8 +502,11 @@
       <c r="C4" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -488,8 +516,11 @@
       <c r="C5" s="2">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -499,8 +530,11 @@
       <c r="C6" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -510,8 +544,11 @@
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -521,8 +558,11 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -532,8 +572,11 @@
       <c r="C9" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -543,26 +586,30 @@
       <c r="C10" s="2">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
     </row>
   </sheetData>
